--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.15/avg_0.004_scores.xlsx
@@ -46,28 +46,28 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>paint</t>
   </si>
   <si>
     <t>small</t>
@@ -76,75 +76,78 @@
     <t>broken</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>cheap</t>
+    <t>though</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>though</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>would</t>
+    <t>work</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>one</t>
+    <t>little</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -167,9 +170,6 @@
   </si>
   <si>
     <t>loved</t>
-  </si>
-  <si>
-    <t>friends</t>
   </si>
   <si>
     <t>fun</t>
@@ -536,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,7 +544,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
         <v>54</v>
@@ -605,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -623,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -655,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -673,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>0.8153846153846154</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>0.6774193548387096</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="L5">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="M5">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7330097087378641</v>
+        <v>0.734375</v>
       </c>
       <c r="C6">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>0.5849056603773585</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7183098591549296</v>
+        <v>0.7330097087378641</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>0.5</v>
@@ -855,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7150537634408602</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="C8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>0.3319672131147541</v>
+        <v>0.3418032786885246</v>
       </c>
       <c r="L8">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="M8">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>815</v>
+        <v>803</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,16 +926,16 @@
         <v>52</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>0.2840746054519369</v>
+        <v>0.296987087517934</v>
       </c>
       <c r="L9">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="M9">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -955,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5966386554621849</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C10">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -973,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.2655601659751037</v>
+        <v>0.2385892116182573</v>
       </c>
       <c r="L10">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="M10">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1005,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5370370370370371</v>
+        <v>0.5126050420168067</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.2108433734939759</v>
+        <v>0.1867469879518072</v>
       </c>
       <c r="L11">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1055,13 +1055,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5272727272727272</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1073,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.1773700305810398</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="L12">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M12">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1105,13 +1105,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4898550724637681</v>
+        <v>0.4579710144927536</v>
       </c>
       <c r="C13">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D13">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1123,31 +1123,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.164021164021164</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>158</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1155,13 +1155,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4698795180722892</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="C14">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.08939526730937773</v>
+        <v>0.03634003893575601</v>
       </c>
       <c r="L14">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="M14">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1039</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1205,13 +1205,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4603174603174603</v>
+        <v>0.4094488188976378</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1223,31 +1223,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>34</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15">
-        <v>0.03114860480207658</v>
-      </c>
-      <c r="L15">
-        <v>48</v>
-      </c>
-      <c r="M15">
-        <v>48</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>1493</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1255,13 +1231,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3937007874015748</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1273,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1281,13 +1257,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3789473684210526</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1299,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1307,13 +1283,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3366336633663367</v>
+        <v>0.2843601895734597</v>
       </c>
       <c r="C18">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D18">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1325,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1333,13 +1309,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3258426966292135</v>
+        <v>0.2821782178217822</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1351,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>60</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1359,13 +1335,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3203125</v>
+        <v>0.28125</v>
       </c>
       <c r="C20">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1377,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1385,13 +1361,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2890995260663507</v>
+        <v>0.2735042735042735</v>
       </c>
       <c r="C21">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1403,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>150</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1411,13 +1387,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2577319587628866</v>
+        <v>0.2628865979381443</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1429,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1437,13 +1413,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2564102564102564</v>
+        <v>0.1835443037974684</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1455,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>87</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1463,25 +1439,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1920289855072464</v>
+        <v>0.1827637444279346</v>
       </c>
       <c r="C24">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="D24">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>223</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1489,25 +1465,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1842496285289748</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C25">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="D25">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="E25">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>549</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1515,25 +1491,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.175</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D26">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>165</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1541,13 +1517,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1613924050632911</v>
+        <v>0.145</v>
       </c>
       <c r="C27">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1559,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>265</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1567,13 +1543,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1542056074766355</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="C28">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1585,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1593,13 +1569,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1487341772151899</v>
+        <v>0.1299559471365639</v>
       </c>
       <c r="C29">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D29">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1611,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>269</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1619,13 +1595,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1387665198237885</v>
+        <v>0.1293103448275862</v>
       </c>
       <c r="C30">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D30">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1637,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>391</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1645,13 +1621,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.132183908045977</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="C31">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1663,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>302</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1671,13 +1647,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0958904109589041</v>
+        <v>0.1161048689138577</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D32">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1689,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>330</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1697,25 +1673,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05766062602965404</v>
+        <v>0.08493150684931507</v>
       </c>
       <c r="C33">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D33">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E33">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>572</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1723,25 +1699,51 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03919089759797725</v>
+        <v>0.06754530477759473</v>
       </c>
       <c r="C34">
+        <v>41</v>
+      </c>
+      <c r="D34">
+        <v>42</v>
+      </c>
+      <c r="E34">
+        <v>0.02</v>
+      </c>
+      <c r="F34">
+        <v>0.98</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.06696428571428571</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35">
         <v>31</v>
       </c>
-      <c r="D34">
-        <v>34</v>
-      </c>
-      <c r="E34">
-        <v>0.09</v>
-      </c>
-      <c r="F34">
-        <v>0.91</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>760</v>
+      <c r="E35">
+        <v>0.03</v>
+      </c>
+      <c r="F35">
+        <v>0.97</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
